--- a/data/trans_camb/P23_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,41</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,47</t>
+          <t>-3,66; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,15</t>
+          <t>-3,75; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,53</t>
+          <t>-1,85; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,5</t>
+          <t>0,74; 7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,08</t>
+          <t>-2,14; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,7</t>
+          <t>-1,91; 2,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,17</t>
+          <t>-0,53; 4,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,03</t>
+          <t>-1,06; 3,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,84</t>
+          <t>-0,65; 4,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 3,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 0,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 2,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 4,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 3,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>-26,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>-22,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>53,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,85; 51,16</t>
+          <t>-61,69; 34,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 43,0</t>
+          <t>-59,66; 47,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 215,34</t>
+          <t>-35,35; 109,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 77,26</t>
+          <t>6,98; 188,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 122,78</t>
+          <t>-23,22; 62,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 142,39</t>
+          <t>-34,49; 64,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 34,42</t>
+          <t>-10,4; 130,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 58,18</t>
+          <t>-21,71; 115,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 142,73</t>
+          <t>-10,64; 95,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,1; 62,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,09; 27,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,66; 58,79</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 81,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,43; 115,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,34; 48,96</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,38</t>
+          <t>-4,0; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,04</t>
+          <t>-6,78; -0,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,55</t>
+          <t>-5,94; 0,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,07</t>
+          <t>1,37; 9,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,48</t>
+          <t>-0,78; 8,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,98</t>
+          <t>-6,71; -0,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,08</t>
+          <t>-5,34; 1,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,1</t>
+          <t>-5,21; 1,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 2,47</t>
+          <t>-1,29; 6,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 5,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 0,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; -0,31</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 0,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 6,55</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 5,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>-44,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>-33,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,71%</t>
+          <t>123,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>-45,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,27%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>41,69%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-22,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-35,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-27,26%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>80,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>47,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 73,9</t>
+          <t>-46,89; 79,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,2; 3,64</t>
+          <t>-73,86; -3,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 77,29</t>
+          <t>-66,32; 26,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 4,39</t>
+          <t>7,03; 305,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 35,6</t>
+          <t>-14,7; 235,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 87,35</t>
+          <t>-71,34; -2,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 24,19</t>
+          <t>-59,5; 42,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 3,78</t>
+          <t>-57,78; 42,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 52,39</t>
+          <t>-22,19; 155,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,17; 168,27</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-49,75; 17,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-58,26; -4,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-53,73; 11,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 167,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-13,38; 136,33</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 15,65</t>
+          <t>-0,83; 18,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,03</t>
+          <t>-1,14; 7,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-2,49; 3,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 7,24</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 7,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 6,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 3,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 8,62</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 5,0</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 10,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 5,1</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 2,52</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>313,41%</t>
+          <t>338,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>170,09%</t>
+          <t>154,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>113,16%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>99,21%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>178,49%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>108,88%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>176,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1238,30 +1616,60 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 902,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,19; 741,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-42,03; 862,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,1; 663,71</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-87,05; 524,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; 897,78</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,25; 523,7</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-17,28; 1033,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,59; 494,27</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-74,33; 265,62</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,08</t>
+          <t>-2,12; 2,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,36</t>
+          <t>-3,3; 0,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,01</t>
+          <t>-2,45; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,97</t>
+          <t>2,58; 7,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,13</t>
+          <t>-1,11; 4,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,75</t>
+          <t>-2,53; 0,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,06</t>
+          <t>-1,39; 2,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,87</t>
+          <t>-1,85; 1,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,76</t>
+          <t>0,33; 4,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 3,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 0,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 0,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 1,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 5,22</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>112,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>75,64%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 54,06</t>
+          <t>-36,78; 53,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 8,44</t>
+          <t>-52,77; 7,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 125,21</t>
+          <t>-41,25; 39,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 25,82</t>
+          <t>46,63; 219,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 56,16</t>
+          <t>-12,47; 69,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 93,41</t>
+          <t>-39,9; 18,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 25,78</t>
+          <t>-23,59; 52,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 20,97</t>
+          <t>-32,44; 47,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,52; 92,12</t>
+          <t>6,4; 108,87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 57,26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 20,89</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-32,3; 17,81</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-28,44; 25,33</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>37,09; 124,16</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 51,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
